--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbinh\OneDrive\Desktop\company-dashboard-be\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE69F41-56A3-4DDD-AC79-06EE195A7F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96DA37-0ECB-4608-81BD-AF1000F94C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18B157C2-8A4A-41FF-B081-E301DF295774}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Full time</t>
+  </si>
+  <si>
+    <t>Tổng hợp ngày nghỉ phép</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD8E03-0CFC-42B3-9419-2183D9D9195B}">
-  <dimension ref="C6:H13"/>
+  <dimension ref="C6:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,6 +588,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
